--- a/src/test/resources/testscript.xlsx
+++ b/src/test/resources/testscript.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17964" windowHeight="4980"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17964" windowHeight="4548"/>
   </bookViews>
   <sheets>
     <sheet name="MyProfileDetails" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TeacherDetails" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q15"/>
+  <oleSize ref="A1:R14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Key</t>
   </si>
@@ -28,27 +29,12 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>Ashish</t>
-  </si>
-  <si>
-    <t>i_name</t>
-  </si>
-  <si>
-    <t>Ashish_7</t>
-  </si>
-  <si>
-    <t>address</t>
+    <t>Female</t>
   </si>
   <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>1234567890</t>
   </si>
   <si>
@@ -91,56 +77,101 @@
     <t>BMW</t>
   </si>
   <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price </t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>35 inch</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>40 inch</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>350000</t>
+  </si>
+  <si>
+    <t>//input[@name='index_number']</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>//input[@name='full_name']</t>
+  </si>
+  <si>
+    <t>Avinash</t>
+  </si>
+  <si>
+    <t>//input[@name='i_name']</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>//input[@name='address']</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
-    <t>43 inch</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>33 inch</t>
-  </si>
-  <si>
-    <t>samsung</t>
-  </si>
-  <si>
-    <t>35 inch</t>
-  </si>
-  <si>
-    <t>one Plus</t>
-  </si>
-  <si>
-    <t>40 inch</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>45000</t>
+    <t>//input[@name='phone']</t>
+  </si>
+  <si>
+    <t>151678908</t>
+  </si>
+  <si>
+    <t>//input[@name='email']</t>
+  </si>
+  <si>
+    <t>abcd@gmai.com</t>
+  </si>
+  <si>
+    <t>//input[@name='fileToUpload']</t>
+  </si>
+  <si>
+    <t>‪C:\Users\Aditya Kumar\OneDrive\Pictures\Screenshots\2023-08-25.png</t>
+  </si>
+  <si>
+    <t>//input[@id='address1']</t>
+  </si>
+  <si>
+    <t>//input[@id='phone1']</t>
+  </si>
+  <si>
+    <t>Avi</t>
+  </si>
+  <si>
+    <t>Avinash_7</t>
+  </si>
+  <si>
+    <t>//input[@id='i_name1']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@class='form-control' and @id='full_name1' ] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +186,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,8 +244,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -222,10 +256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,14 +564,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -550,37 +585,37 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -600,56 +635,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -659,70 +694,142 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>